--- a/config/default/forms/app/hts_screening.xlsx
+++ b/config/default/forms/app/hts_screening.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kemr_uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMR Client Reference</t>
   </si>
   <si>
     <t xml:space="preserve">db:person</t>
@@ -538,11 +544,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -577,6 +584,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -694,7 +715,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,11 +736,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,31 +760,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,11 +792,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2094,30 +2127,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65536"/>
+  <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C34" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="topRight" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="74.7857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="109.882653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.969387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="44.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.9948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="59.5765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.484693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="113.841836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.6887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.3571428571429"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="45.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="21.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,54 +2518,65 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2555,17 +2599,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2588,10 +2634,14 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -2617,14 +2667,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -2653,14 +2699,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2686,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2716,13 +2762,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2752,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>43</v>
@@ -2782,10 +2828,14 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2842,8 +2892,8 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2927,22 +2977,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2962,10 +3006,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -2976,7 +3020,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2996,895 +3040,893 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="H41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-    </row>
-    <row r="45" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="B46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="B47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="C47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-    </row>
-    <row r="52" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-    </row>
-    <row r="54" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3905,22 +3947,22 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3942,42 +3984,46 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="56" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>82</v>
+      <c r="F56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>118</v>
@@ -3985,49 +4031,45 @@
       <c r="C57" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4049,92 +4091,92 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="5" t="s">
+    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>82</v>
+      <c r="F59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -4156,199 +4198,199 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="F62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>82</v>
+      <c r="F65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>129</v>
+      <c r="C67" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -4370,158 +4412,171 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
+    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="9" t="s">
+      <c r="B73" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="9" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
@@ -4530,23 +4585,46 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4602,697 +4680,697 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="containsText" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
+  <conditionalFormatting sqref="A40:Y40">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
+  <conditionalFormatting sqref="A40">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="containsText" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A48">
     <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E39">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E40">
     <cfRule type="containsText" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E39">
+  <conditionalFormatting sqref="E38:E40">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A39">
+  <conditionalFormatting sqref="A39:A40">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
+  <conditionalFormatting sqref="E39:E40">
     <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E39">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $I39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E40">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E39">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $I38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $I39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="containsText" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
+  <conditionalFormatting sqref="A35:Y35">
     <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="containsText" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A41">
+  <conditionalFormatting sqref="A41:A42">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y41">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:Y42">
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I41">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I40 = "", $A40 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+      <formula>AND($I41 = "", $A41 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B42">
     <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H41">
+      <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
+      <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1020, "begin group") = COUNTIF($A$1:$A$1020, "end group"))</formula>
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1021, "begin group") = COUNTIF($A$1:$A$1021, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1011, "begin group") = COUNTIF($A$1:$A$1020, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$1012, "begin group") = COUNTIF($A$1:$A$1021, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="containsText" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I47">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($I46 = "", $A46 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
     <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B47">
     <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
-      <formula>COUNTIF($B$2:$B$1049,B46)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+      <formula>COUNTIF($B$2:$B$1050,B47)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
-      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:Y46">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:Y47">
     <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="containsText" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I65">
     <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
-      <formula>AND($I64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+      <formula>AND($I65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $B64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $B65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H65">
     <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
-      <formula>AND(NOT($G64 = ""), $H64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+      <formula>AND(NOT($G65 = ""), $H65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:Y64">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:Y65">
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
     <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
-      <formula>AND($I69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+      <formula>AND($I70 = "", $A70 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
     <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70">
     <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
-      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:Y69">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Y70">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="containsText" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I71">
     <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND($I70 = "", $A70 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+      <formula>AND($I71 = "", $A71 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
     <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
     <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H71">
     <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>AND(NOT($G70 = ""), $H70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND(NOT($G71 = ""), $H71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Y70">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Y71">
     <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="containsText" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="containsText" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="containsText" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
     <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+      <formula>AND($I69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
     <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
     <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69">
     <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+      <formula>AND(NOT($G69 = ""), $H69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>COUNTIF($B$2:$B$1041,B70)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+      <formula>COUNTIF($B$2:$B$1042,B71)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="containsText" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A44">
     <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:Y43">
+      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:Y44">
     <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
     <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I43 = "", $A43 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
     <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="containsText" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A45">
     <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Y44">
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:Y45">
     <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
     <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>AND($I45 = "", $A45 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+      <formula>AND($I46 = "", $A46 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $C46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
     <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
-      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
+      <formula>AND(AND(NOT($A46 = "end group"), NOT($A46 = "end repeat"), NOT($A46 = "")), $B46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
     <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+      <formula>AND(NOT($G46 = ""), $H46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D44 D46:D71" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2 D8:D12 D14:D45 D47:D72" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D72:D74" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D73:D75" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D45" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D46" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5322,185 +5400,185 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="21.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="1048504" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048505" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5532,49 +5610,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="21.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>165</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="17" t="n">
+      <c r="A2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44068.6109995194</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>44070.4654421184</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
